--- a/GAME.xlsx
+++ b/GAME.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="27000" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>船只结构</t>
   </si>
@@ -46,6 +46,9 @@
     <t>拆除获得</t>
   </si>
   <si>
+    <t>功能</t>
+  </si>
+  <si>
     <t>Z战列舰</t>
   </si>
   <si>
@@ -112,7 +115,10 @@
     <t>试做型昴星团级泰坦</t>
   </si>
   <si>
-    <t>货舱</t>
+    <t>货舱-I</t>
+  </si>
+  <si>
+    <t>增加舰船容量1000t</t>
   </si>
   <si>
     <t>Atlas-S002</t>
@@ -121,37 +127,85 @@
     <t>GALAXY UNION</t>
   </si>
   <si>
+    <t>货舱-II</t>
+  </si>
+  <si>
+    <t>增加舰船容量1500t</t>
+  </si>
+  <si>
     <t>W-Mercury</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
+    <t>货舱-III</t>
+  </si>
+  <si>
+    <t>增加舰船容量2000t</t>
+  </si>
+  <si>
     <t>W-Venus</t>
   </si>
   <si>
+    <t>跃迁加速器-I</t>
+  </si>
+  <si>
+    <t>增加跃迁速度1au</t>
+  </si>
+  <si>
     <t>P-Mercury</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
+    <t>跃迁加速器-II</t>
+  </si>
+  <si>
+    <t>增加跃迁速度2au</t>
+  </si>
+  <si>
     <t>P-Venus</t>
   </si>
   <si>
+    <t>跃迁加速器-III</t>
+  </si>
+  <si>
+    <t>增加跃迁速度3au</t>
+  </si>
+  <si>
     <t>Z-Mercury</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
+    <t>装甲修复器-I</t>
+  </si>
+  <si>
+    <t>修复HP200</t>
+  </si>
+  <si>
     <t>Z-Venus</t>
   </si>
   <si>
+    <t>装甲修复器-II</t>
+  </si>
+  <si>
+    <t>修复HP500</t>
+  </si>
+  <si>
     <t>Q-Mercury</t>
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>装甲修复器-III</t>
+  </si>
+  <si>
+    <t>修复HP1000</t>
   </si>
   <si>
     <t>Q-Venus</t>
@@ -165,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -209,7 +263,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,22 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,60 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,8 +382,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +445,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,85 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,79 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,8 +755,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +800,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,15 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -768,15 +831,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +869,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,9 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,6 +1034,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,11 +1390,15 @@
   <sheetPr/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.2583333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.9916666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
@@ -1446,9 +1504,11 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>5</v>
@@ -1457,41 +1517,41 @@
         <v>6</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>50</v>
@@ -1500,17 +1560,17 @@
         <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="7">
         <v>500</v>
@@ -1537,17 +1597,17 @@
         <v>10000</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" ht="14.25" spans="1:20">
+    <row r="7" spans="1:20">
       <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="8">
         <v>20</v>
@@ -1558,435 +1618,537 @@
       <c r="E7" s="8">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="8"/>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="9">
         <v>20000</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>50000</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>800</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>8</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>6</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>10</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>10</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10">
         <v>100</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>20</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>50</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="H8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="11">
         <v>1500</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>4</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>4000</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>30</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>4</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>2</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>35000</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>15000</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8">
+        <v>180</v>
+      </c>
+      <c r="D9" s="8">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8">
+        <v>90</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L9" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="9">
+        <v>3</v>
+      </c>
+      <c r="P9" s="9">
+        <v>30000</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>12000</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="J9" s="10">
-        <v>5000</v>
-      </c>
-      <c r="K9" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="L9" s="10">
-        <v>6000</v>
-      </c>
-      <c r="M9" s="10">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="10">
-        <v>4</v>
-      </c>
-      <c r="O9" s="10">
-        <v>3</v>
-      </c>
-      <c r="P9" s="10">
-        <v>30000</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>12000</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10">
+        <v>250</v>
+      </c>
+      <c r="D10" s="10">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10">
+        <v>125</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11">
+        <v>6000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="L10" s="11">
+        <v>8000</v>
+      </c>
+      <c r="M10" s="11">
+        <v>4000</v>
+      </c>
+      <c r="N10" s="11">
+        <v>5</v>
+      </c>
+      <c r="O10" s="11">
+        <v>4</v>
+      </c>
+      <c r="P10" s="11">
+        <v>40000</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>15000</v>
+      </c>
+      <c r="R10" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="J10" s="12">
-        <v>6000</v>
-      </c>
-      <c r="K10" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="L10" s="12">
-        <v>8000</v>
-      </c>
-      <c r="M10" s="12">
-        <v>4000</v>
-      </c>
-      <c r="N10" s="12">
-        <v>5</v>
-      </c>
-      <c r="O10" s="12">
-        <v>4</v>
-      </c>
-      <c r="P10" s="12">
-        <v>40000</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>15000</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="A11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8">
+        <v>100</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="9">
         <v>2000</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>4.5</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>3000</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>1500</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>4</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>3</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>30000</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>12000</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="A12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10">
+        <v>500</v>
+      </c>
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10">
+        <v>250</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="11">
         <v>3000</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>5.5</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>4000</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>2000</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>4</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>4</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>35000</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <v>12000</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="H13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>200</v>
+      </c>
+      <c r="E13" s="8">
+        <v>500</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="9">
         <v>7000</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>7000</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>500</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>5</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>4</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>50000</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <v>20000</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="H14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="A14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10">
+        <v>300</v>
+      </c>
+      <c r="D14" s="10">
+        <v>60</v>
+      </c>
+      <c r="E14" s="10">
+        <v>150</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="11">
         <v>8000</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>4</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>8000</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>600</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>6</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>5</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>60000</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>25000</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="H15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>150</v>
+      </c>
+      <c r="E15" s="8">
+        <v>500</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="9">
         <v>6000</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>3</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>6500</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>400</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>7</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>6</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>50000</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>20000</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="H16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="A16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>300</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="11">
         <v>7000</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>3.5</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>7500</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>600</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>8</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>6</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>60000</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>25000</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
@@ -1997,38 +2159,39 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="F17" s="14"/>
+      <c r="H17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="9">
         <v>25000</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>3</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <v>60000</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>1000</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>9</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <v>7</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <v>100000</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <v>40000</v>
       </c>
       <c r="R17" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
@@ -2039,16 +2202,17 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
@@ -2059,16 +2223,17 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
@@ -2079,16 +2244,17 @@
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
@@ -2099,16 +2265,17 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
@@ -2119,16 +2286,17 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
@@ -2139,16 +2307,17 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
@@ -2159,16 +2328,17 @@
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="F24" s="16"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
@@ -2179,16 +2349,17 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
@@ -2199,16 +2370,17 @@
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="F26" s="16"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
@@ -2219,16 +2391,17 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
@@ -2239,16 +2412,17 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
@@ -2259,16 +2433,17 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="F29" s="14"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
@@ -2279,16 +2454,17 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="F30" s="16"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
@@ -2299,16 +2475,17 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
@@ -2319,16 +2496,17 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="F32" s="16"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
@@ -2339,16 +2517,17 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="F33" s="14"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
@@ -2359,16 +2538,17 @@
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
@@ -2379,16 +2559,17 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="20"/>
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
@@ -2399,16 +2580,17 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="F36" s="16"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
@@ -2419,16 +2601,17 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="F37" s="14"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
@@ -2439,16 +2622,17 @@
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
@@ -2459,16 +2643,17 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
@@ -2479,16 +2664,17 @@
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
+      <c r="F40" s="16"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
@@ -2499,16 +2685,17 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="F41" s="14"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
@@ -2519,16 +2706,17 @@
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="F42" s="16"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
@@ -2539,16 +2727,17 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
@@ -2559,16 +2748,17 @@
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
       <c r="T44" s="21"/>
@@ -2579,16 +2769,17 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="F45" s="14"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
@@ -2599,16 +2790,17 @@
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="F46" s="16"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
@@ -2619,16 +2811,17 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
+      <c r="F47" s="14"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="20"/>
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
@@ -2639,16 +2832,17 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
+      <c r="F48" s="16"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
@@ -2659,16 +2853,17 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="F49" s="14"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
@@ -2679,16 +2874,17 @@
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
+      <c r="F50" s="16"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
@@ -2699,16 +2895,17 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
+      <c r="F51" s="14"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
@@ -2719,16 +2916,17 @@
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
+      <c r="F52" s="16"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
@@ -2739,16 +2937,17 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
+      <c r="F53" s="14"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
@@ -2759,16 +2958,17 @@
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="F54" s="16"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
       <c r="R54" s="21"/>
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
@@ -2779,16 +2979,17 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
+      <c r="F55" s="14"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
@@ -2799,16 +3000,17 @@
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
+      <c r="F56" s="16"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
       <c r="T56" s="21"/>
@@ -2819,16 +3021,17 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
+      <c r="F57" s="14"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
@@ -2839,16 +3042,17 @@
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
+      <c r="F58" s="16"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
       <c r="T58" s="21"/>
@@ -2859,16 +3063,17 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
+      <c r="F59" s="14"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
@@ -2879,16 +3084,17 @@
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
+      <c r="F60" s="16"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
       <c r="T60" s="21"/>
@@ -2899,16 +3105,17 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
+      <c r="F61" s="14"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
@@ -2919,16 +3126,17 @@
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
+      <c r="F62" s="16"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
       <c r="T62" s="21"/>
@@ -2939,16 +3147,17 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
+      <c r="F63" s="14"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
@@ -2959,16 +3168,17 @@
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
+      <c r="F64" s="16"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
       <c r="R64" s="21"/>
       <c r="S64" s="21"/>
       <c r="T64" s="21"/>
@@ -2979,16 +3189,17 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
+      <c r="F65" s="14"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
@@ -2999,16 +3210,17 @@
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
+      <c r="F66" s="16"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
@@ -3019,16 +3231,17 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
+      <c r="F67" s="14"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="20"/>
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
@@ -3039,16 +3252,17 @@
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
+      <c r="F68" s="16"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
       <c r="T68" s="21"/>
@@ -3059,16 +3273,17 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
+      <c r="F69" s="14"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
@@ -3079,16 +3294,17 @@
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
+      <c r="F70" s="16"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
       <c r="R70" s="21"/>
       <c r="S70" s="21"/>
       <c r="T70" s="21"/>
@@ -3099,16 +3315,17 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
+      <c r="F71" s="14"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
@@ -3119,16 +3336,17 @@
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
+      <c r="F72" s="16"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
       <c r="R72" s="21"/>
       <c r="S72" s="21"/>
       <c r="T72" s="21"/>
@@ -3139,16 +3357,17 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
+      <c r="F73" s="14"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
@@ -3159,16 +3378,17 @@
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
+      <c r="F74" s="16"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
       <c r="R74" s="21"/>
       <c r="S74" s="21"/>
       <c r="T74" s="21"/>
@@ -3180,16 +3400,16 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
@@ -3200,16 +3420,17 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
+      <c r="F76" s="16"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
       <c r="R76" s="21"/>
       <c r="S76" s="21"/>
       <c r="T76" s="21"/>
@@ -3220,16 +3441,17 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
+      <c r="F77" s="14"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
@@ -3240,26 +3462,28 @@
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
+      <c r="F78" s="16"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="76">
